--- a/data/trans_camb/P1801_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-7.684043994994971</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.3197907447647474</v>
+        <v>-0.3197907447647419</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-4.45777594163212</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.48260120142823</v>
+        <v>-15.33450847811342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.862764625948284</v>
+        <v>-8.808117702021887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.637748445477982</v>
+        <v>-10.4107454902867</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1061691219213024</v>
+        <v>0.2810727149457783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.723926695444456</v>
+        <v>7.516718280027581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.632779723170748</v>
+        <v>1.225864553199282</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.290471712550879</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.007820523840007193</v>
+        <v>-0.007820523840007058</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1332170175549594</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5359239598630851</v>
+        <v>-0.5319390074165895</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2029146161958516</v>
+        <v>-0.2106302582872679</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2777364908038264</v>
+        <v>-0.2915489202454977</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.006533912723800083</v>
+        <v>0.02314063905699931</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.229243907572939</v>
+        <v>0.1993133628126687</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05033892727776105</v>
+        <v>0.03984285015778418</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.671121058234705</v>
+        <v>3.671121058234711</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.576016319557932</v>
+        <v>-7.576016319557927</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-1.638705061555745</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.773521858957666</v>
+        <v>-3.010177420057302</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.68850197528098</v>
+        <v>-13.79490368851211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.647427882631868</v>
+        <v>-5.768429524003902</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.40923119910987</v>
+        <v>10.01787775875694</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.650176624274842</v>
+        <v>-1.564561677905677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.837424250521216</v>
+        <v>3.21924224394641</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.121159899928716</v>
+        <v>0.1211598999287162</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1537496334367205</v>
+        <v>-0.1537496334367204</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.04141718040519381</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08607170598407518</v>
+        <v>-0.09184129667710129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2666705554422044</v>
+        <v>-0.263978204286129</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1575937122541421</v>
+        <v>-0.1412403660323012</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3723953046619849</v>
+        <v>0.3483746092637531</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03598136247088521</v>
+        <v>-0.0338870719196127</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07532454832382192</v>
+        <v>0.08681615621297989</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-0.7440293034125856</v>
+        <v>-0.7440293034125744</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-4.201970021712592</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.294959811867046</v>
+        <v>-6.304285852167199</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.034734331387021</v>
+        <v>-9.42346878982883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.118555336146455</v>
+        <v>-6.497951252867534</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.091792909882766</v>
+        <v>4.867421785708516</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.401951923356468</v>
+        <v>0.781062865643247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.754827949502738</v>
+        <v>1.364915487297649</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.01776038614838286</v>
+        <v>-0.0177603861483826</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.08075133315891266</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1418123103219281</v>
+        <v>-0.1423240399417847</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1648012295327533</v>
+        <v>-0.1744754836273111</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1259994587700895</v>
+        <v>-0.1311799641701518</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1296323795103285</v>
+        <v>0.1264309380713763</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02707761283061594</v>
+        <v>0.01592864644714999</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03852610679886483</v>
+        <v>0.02971419444747399</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>4.736476354070051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.351453359965207</v>
+        <v>4.351453359965218</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.323420085832724</v>
+        <v>-1.581101274285946</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.299484976091193</v>
+        <v>-0.465865780950507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5936553121349261</v>
+        <v>0.6858332043753057</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.210443478745455</v>
+        <v>9.715306272353905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.400099206141061</v>
+        <v>8.943917456827622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.324944459503524</v>
+        <v>8.13873640503193</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.09103701105788692</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.08686729553350311</v>
+        <v>0.08686729553350334</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04543233792643679</v>
+        <v>-0.03049811375505599</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.005313587187160093</v>
+        <v>-0.008326653452420136</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.01145099825396056</v>
+        <v>0.01299933647071682</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2066694621602314</v>
+        <v>0.2148192576802632</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1930769441696617</v>
+        <v>0.1831369571798603</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1741261152382381</v>
+        <v>0.1695362546685728</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>-1.218036166922387</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.922767263167813</v>
+        <v>-1.922767263167791</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.65337127712285</v>
+        <v>-1.653371277122861</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.037510913575804</v>
+        <v>-7.245053984571364</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.581290831220687</v>
+        <v>-6.800141559572952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.579871362069517</v>
+        <v>-5.49869529219449</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.154050671012358</v>
+        <v>4.7398902816882</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.783971740094247</v>
+        <v>3.667106530250785</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.298387859563309</v>
+        <v>2.189029679167965</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>-0.02101271517598329</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.02901844552101596</v>
+        <v>-0.02901844552101562</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02658412431579592</v>
+        <v>-0.0265841243157961</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1133820658564334</v>
+        <v>-0.1164382380921665</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1065568282222505</v>
+        <v>-0.09797994459828108</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08680115691756579</v>
+        <v>-0.08513427095378838</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09687872435480488</v>
+        <v>0.0857711564265163</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0588807277845454</v>
+        <v>0.05791636396220334</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03894263138014048</v>
+        <v>0.03641326840797326</v>
       </c>
     </row>
     <row r="34">
@@ -1100,7 +1100,7 @@
         <v>-8.87608435425139</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.282979722098847</v>
+        <v>-6.282979722098836</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.38069267912058</v>
+        <v>-10.09019500197731</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.32749631131985</v>
+        <v>-14.10099096510838</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.3590484773364</v>
+        <v>-10.2116626499811</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.531689891743486</v>
+        <v>3.466758631301249</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-3.402152605045471</v>
+        <v>-3.134078303158736</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.038229411653345</v>
+        <v>-1.842535034855925</v>
       </c>
     </row>
     <row r="37">
@@ -1151,7 +1151,7 @@
         <v>-0.1171695497018672</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.08725030530394429</v>
+        <v>-0.08725030530394413</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1445073105124972</v>
+        <v>-0.1417123721450229</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1824490755512436</v>
+        <v>-0.1781693703747974</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1389756065717313</v>
+        <v>-0.137135494049415</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05411445474507198</v>
+        <v>0.05360206410238975</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.04715562310524019</v>
+        <v>-0.04308276366637735</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.02984750944237418</v>
+        <v>-0.02732604723343219</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>-0.657683152134636</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.311971191265782</v>
+        <v>-1.311971191265771</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.141514987460232</v>
+        <v>-9.72359211660069</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.438650915043015</v>
+        <v>-6.004104148944582</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.466005863246265</v>
+        <v>-5.537860141492612</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.366172233684075</v>
+        <v>3.941757117280566</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.391750581828773</v>
+        <v>5.892197600817541</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.455398487075261</v>
+        <v>3.641367147390185</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>-0.009138203891292976</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01789293757050223</v>
+        <v>-0.01789293757050208</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1142416177173779</v>
+        <v>-0.1199612322205919</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08550305373053012</v>
+        <v>-0.0785395709691712</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.07118527831581406</v>
+        <v>-0.07300283147598025</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06074301539702244</v>
+        <v>0.0540988269897723</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08050525137340625</v>
+        <v>0.08970273908154142</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04905532447529723</v>
+        <v>0.05168331536847761</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>-1.203517398724518</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.1016593423970424</v>
+        <v>0.1016593423970535</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.151022346531676</v>
+        <v>-0.9220208681521264</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.243874909538309</v>
+        <v>-3.306429203501491</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.59613398478423</v>
+        <v>-1.771477178192726</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.015364852886077</v>
+        <v>3.766670839461992</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.009616988190073</v>
+        <v>1.171999919898915</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.722183362616081</v>
+        <v>1.695901528982459</v>
       </c>
     </row>
     <row r="49">
@@ -1363,7 +1363,7 @@
         <v>-0.02106871878043899</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.001957542223529986</v>
+        <v>0.0019575422235302</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02436817335017546</v>
+        <v>-0.01965234578439843</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.05599388465758379</v>
+        <v>-0.05661867472545432</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.03037508383971962</v>
+        <v>-0.03332447848522248</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08806052305553388</v>
+        <v>0.08284002203641359</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.01804582170116508</v>
+        <v>0.02088023107043351</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03379127610301773</v>
+        <v>0.03343734777958395</v>
       </c>
     </row>
     <row r="52">
